--- a/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
+++ b/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="5920" yWindow="-21600" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Forenames *</t>
   </si>
@@ -177,6 +169,12 @@
     <t>Date Attained</t>
   </si>
   <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
     <t>Current</t>
   </si>
   <si>
@@ -189,18 +187,35 @@
     <t>Substantive</t>
   </si>
   <si>
-    <t>2/27/19</t>
-  </si>
-  <si>
-    <t>7/31/23</t>
-  </si>
-  <si>
     <t>General (Internal) Medicine</t>
   </si>
   <si>
     <t>Dr</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>random.guy@hotmail.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>10 Scarborough Flats</t>
+  </si>
+  <si>
+    <t>Wilson Street</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>EC2 8WY</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -223,48 +238,37 @@
   </si>
   <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>random.guy@hotmail.co.uk</t>
-  </si>
-  <si>
-    <t>10 Scarborough Flats</t>
-  </si>
-  <si>
-    <t>Wilson Street</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>EC2 8WY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="d/m/yy"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,40 +287,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -340,82 +392,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +441,7 @@
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -468,7 +460,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -489,16 +481,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -507,23 +490,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -580,328 +561,1662 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="49.5" customWidth="1"/>
-    <col min="29" max="30" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.8516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.8516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.8516" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.8516" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.8516" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.8516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.8516" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.8516" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1719" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.1719" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.8516" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.8516" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.8516" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.8516" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.8516" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.8516" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.8516" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10.8516" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.8516" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.8516" style="1" customWidth="1"/>
+    <col min="41" max="41" width="10.8516" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.8516" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.8516" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.8516" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.8516" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.8516" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.8516" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.8516" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.8516" style="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5" style="1" customWidth="1"/>
+    <col min="51" max="51" width="10.8516" style="1" customWidth="1"/>
+    <col min="52" max="52" width="10.8516" style="1" customWidth="1"/>
+    <col min="53" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" t="s">
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="M2" s="5">
+        <v>43523</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5">
+        <v>45138</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>43313</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="S2" s="5">
+        <v>45138</v>
+      </c>
+      <c r="T2" s="5">
+        <v>43313</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="5">
+        <v>26268</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>7483256211</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>7483256211</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="3"/>
+      <c r="AM2" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D2">
-        <v>1234567</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>43108</v>
-      </c>
-      <c r="R2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1">
-        <v>43108</v>
-      </c>
-      <c r="X2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>26268</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="AC2">
-        <v>7483256211</v>
-      </c>
-      <c r="AD2">
-        <v>7483256211</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AX2" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AY2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2" s="6">
         <v>38967</v>
       </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1"/>
+    <hyperlink ref="AB2" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
+++ b/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Forenames *</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Programme End Date</t>
   </si>
   <si>
+    <t>Rotation #1</t>
+  </si>
+  <si>
     <t>NTN (Programme)</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t>Substantive</t>
+  </si>
+  <si>
+    <t>Trauma &amp; Orthopaedic Surgery NCEL UCLP - RNOH</t>
   </si>
   <si>
     <t>General (Internal) Medicine</t>
@@ -197,7 +203,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>random.guy@hotmail.co.uk</t>
@@ -267,16 +273,22 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -289,16 +301,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -315,19 +327,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -347,6 +359,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0000ff"/>
     </indexedColors>
@@ -499,9 +512,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -581,7 +594,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -609,10 +622,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -868,9 +881,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1158,7 +1171,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1186,10 +1199,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1440,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1459,7 +1472,7 @@
     <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.8516" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
@@ -1474,9 +1487,9 @@
     <col min="26" max="26" width="10.8516" style="1" customWidth="1"/>
     <col min="27" max="27" width="10.8516" style="1" customWidth="1"/>
     <col min="28" max="28" width="10.8516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.1719" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.8516" style="1" customWidth="1"/>
     <col min="30" max="30" width="11.1719" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.8516" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.1719" style="1" customWidth="1"/>
     <col min="32" max="32" width="10.8516" style="1" customWidth="1"/>
     <col min="33" max="33" width="10.8516" style="1" customWidth="1"/>
     <col min="34" max="34" width="10.8516" style="1" customWidth="1"/>
@@ -1495,10 +1508,11 @@
     <col min="47" max="47" width="10.8516" style="1" customWidth="1"/>
     <col min="48" max="48" width="10.8516" style="1" customWidth="1"/>
     <col min="49" max="49" width="10.8516" style="1" customWidth="1"/>
-    <col min="50" max="50" width="20.5" style="1" customWidth="1"/>
-    <col min="51" max="51" width="10.8516" style="1" customWidth="1"/>
+    <col min="50" max="50" width="10.8516" style="1" customWidth="1"/>
+    <col min="51" max="51" width="20.5" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.8516" style="1" customWidth="1"/>
-    <col min="53" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.8516" style="1" customWidth="1"/>
+    <col min="54" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -1658,13 +1672,16 @@
       <c r="AZ1" t="s" s="2">
         <v>51</v>
       </c>
+      <c r="BA1" t="s" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4">
@@ -1674,106 +1691,109 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="5">
         <v>43523</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="N2" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="5">
         <v>45138</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>43313</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="S2" s="5">
+      <c r="S2" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="T2" s="5">
         <v>45138</v>
       </c>
-      <c r="T2" s="5">
+      <c r="U2" s="5">
         <v>43313</v>
       </c>
-      <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="5">
+      <c r="X2" s="3"/>
+      <c r="Y2" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="5">
         <v>26268</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>7483256211</v>
+      <c r="AB2" s="3"/>
+      <c r="AC2" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="AD2" s="4">
         <v>7483256211</v>
       </c>
-      <c r="AE2" t="s" s="2">
-        <v>61</v>
+      <c r="AE2" s="4">
+        <v>7483256211</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="AN2" s="3"/>
+      <c r="AL2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="3"/>
+      <c r="AN2" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
-      <c r="AQ2" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AR2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
-      <c r="AW2" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="AW2" s="3"/>
       <c r="AX2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AY2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AZ2" s="6">
+        <v>73</v>
+      </c>
+      <c r="AZ2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="BA2" s="6">
         <v>38967</v>
       </c>
     </row>
@@ -1830,6 +1850,7 @@
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" s="3"/>
@@ -1884,6 +1905,7 @@
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" s="3"/>
@@ -1938,6 +1960,7 @@
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" s="3"/>
@@ -1992,6 +2015,7 @@
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" s="3"/>
@@ -2046,6 +2070,7 @@
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" s="3"/>
@@ -2100,6 +2125,7 @@
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" s="3"/>
@@ -2154,6 +2180,7 @@
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" s="3"/>
@@ -2208,10 +2235,11 @@
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="AC2" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
+++ b/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
@@ -52,7 +52,7 @@
     <t>Programme End Date</t>
   </si>
   <si>
-    <t>Rotation #1</t>
+    <t>Rotation</t>
   </si>
   <si>
     <t>NTN (Programme)</t>

--- a/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
+++ b/generic-upload-service/src/test/resources/TIS Recruitment Import Template - test - single.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t xml:space="preserve">Forenames *</t>
   </si>
@@ -43,12 +43,6 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
-    <t xml:space="preserve">Record Status </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inactive Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Programme Name</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Guy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current</t>
   </si>
   <si>
     <t xml:space="preserve">Cardiology</t>
@@ -342,7 +333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,10 +343,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,23 +379,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7592592592593"/>
-    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.8222222222222"/>
-    <col collapsed="false" hidden="false" max="29" min="15" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="11.4666666666667"/>
-    <col collapsed="false" hidden="false" max="50" min="32" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="1" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="256" min="52" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="11.0740740740741"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="42.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="13" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="11.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="30" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="20.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="50" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="255" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -565,131 +553,121 @@
       <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>1234567</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="4" t="n">
+        <v>36218</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>45138</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>43313</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="4" t="n">
+        <v>45138</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>43313</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <v>36218</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4" t="n">
+        <v>26268</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="5" t="n">
-        <v>45138</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>43313</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="AB2" s="3" t="n">
+        <v>7483256211</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>7483256211</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="5" t="n">
-        <v>45138</v>
-      </c>
-      <c r="U2" s="5" t="n">
-        <v>43313</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="5" t="n">
-        <v>26268</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AF2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" s="4" t="n">
-        <v>7483256211</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>7483256211</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
-      <c r="AR2" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
+      <c r="AV2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="AX2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA2" s="7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="6" t="n">
         <v>38967</v>
       </c>
     </row>
@@ -745,8 +723,6 @@
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -800,8 +776,6 @@
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -855,8 +829,6 @@
       <c r="AW5" s="3"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -910,8 +882,6 @@
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -965,8 +935,6 @@
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -1020,8 +988,6 @@
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -1075,8 +1041,6 @@
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
@@ -1130,16 +1094,14 @@
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" display="random.guy@hotmail.co.uk"/>
+    <hyperlink ref="AA2" r:id="rId1" display="random.guy@hotmail.co.uk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;P</oddFooter>
